--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
@@ -43,100 +43,106 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>ripped</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>terrible</t>
   </si>
   <si>
     <t>trash</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>inches</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>loose</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
+    <t>glue</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>okay</t>
   </si>
   <si>
     <t>lasted</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>less</t>
   </si>
   <si>
     <t>plastic</t>
@@ -145,43 +151,43 @@
     <t>might</t>
   </si>
   <si>
-    <t>less</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>tried</t>
@@ -190,117 +196,117 @@
     <t>bit</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>sound</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>color</t>
+    <t>minutes</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>size</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>1</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>used</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
     <t>need</t>
   </si>
   <si>
-    <t>price</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -349,13 +355,7 @@
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -719,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
         <v>115</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>0.8571428571428571</v>
@@ -838,13 +838,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K4">
         <v>0.8307692307692308</v>
@@ -888,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8148148148148148</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K6">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>0.5283018867924528</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,31 +1056,31 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K8">
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
       <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7619047619047619</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K9">
-        <v>0.3623188405797101</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10">
-        <v>0.3483606557377049</v>
+        <v>0.3475409836065574</v>
       </c>
       <c r="L10">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M10">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1188,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7378640776699029</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C11">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D11">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>0.3098995695839311</v>
+        <v>0.3045977011494253</v>
       </c>
       <c r="L11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.734375</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K12">
-        <v>0.2759336099585062</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L12">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7323943661971831</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K13">
         <v>0.225</v>
@@ -1338,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7272727272727273</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1356,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K14">
-        <v>0.1927710843373494</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7258064516129032</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>0.1834862385321101</v>
+        <v>0.1773700305810398</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6956521739130435</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16">
         <v>0.1375661375661376</v>
@@ -1488,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6621621621621622</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17">
         <v>0.0963855421686747</v>
@@ -1538,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6545454545454545</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,31 +1556,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K18">
-        <v>0.08064516129032258</v>
+        <v>0.07631578947368421</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>171</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K19">
-        <v>0.07624890446976336</v>
+        <v>0.03439325113562622</v>
       </c>
       <c r="L19">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="M19">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1054</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6134453781512605</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,31 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20">
-        <v>0.04178272980501393</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>344</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1688,13 +1664,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1706,31 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21">
-        <v>0.02530824140168722</v>
-      </c>
-      <c r="L21">
-        <v>39</v>
-      </c>
-      <c r="M21">
-        <v>39</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1502</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1738,13 +1690,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1756,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5526315789473685</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5483870967741935</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1768,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5208333333333334</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1794,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5142857142857142</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1860,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1820,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4814814814814815</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1894,13 +1846,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.4985507246376812</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1912,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1920,13 +1872,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4761904761904762</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1938,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1946,13 +1898,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4753623188405797</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C30">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1964,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1972,13 +1924,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1990,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1998,13 +1950,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2016,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2024,13 +1976,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4105263157894737</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2042,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2050,13 +2002,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4102564102564102</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2068,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2076,13 +2028,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4096385542168675</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2094,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2102,13 +2054,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3937007874015748</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2120,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2128,13 +2080,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3902439024390244</v>
+        <v>0.4</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2146,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2154,13 +2106,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3833333333333334</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2172,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2180,13 +2132,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3818181818181818</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2198,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2206,13 +2158,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.375</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2224,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2232,13 +2184,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3707865168539326</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2250,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2258,13 +2210,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3488372093023256</v>
+        <v>0.3127962085308057</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2276,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2284,13 +2236,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3469387755102041</v>
+        <v>0.3125</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2302,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2310,13 +2262,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.34375</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2328,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2336,13 +2288,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3275862068965517</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2354,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2362,13 +2314,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3148148148148148</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2380,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2388,13 +2340,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3069306930693069</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C47">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2406,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>140</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2414,13 +2366,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3061224489795918</v>
+        <v>0.296875</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2432,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2440,13 +2392,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2938388625592417</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2458,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>149</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2466,13 +2418,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2857142857142857</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2484,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2492,13 +2444,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2786885245901639</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2510,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2518,13 +2470,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2653061224489796</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C52">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2536,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2544,7 +2496,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2318840579710145</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -2562,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2570,13 +2522,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2307692307692308</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2588,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2596,13 +2548,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2133333333333333</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2614,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2622,13 +2574,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2087912087912088</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C56">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2640,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>72</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2648,13 +2600,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2010309278350516</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C57">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2666,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>155</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2674,13 +2626,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1855670103092784</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2692,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2700,13 +2652,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1847826086956522</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2718,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>225</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2726,13 +2678,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.180379746835443</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C60">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D60">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2744,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2778,13 +2730,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.175</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2796,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>165</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2804,13 +2756,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1735905044510386</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C63">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D63">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2822,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>557</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2830,25 +2782,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1613924050632911</v>
+        <v>0.1634472511144131</v>
       </c>
       <c r="C64">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D64">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>265</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2882,13 +2834,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.15</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2900,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>119</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2908,22 +2860,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1495327102803738</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>17</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>91</v>
@@ -2934,13 +2886,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1371428571428571</v>
+        <v>0.155</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2952,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2960,13 +2912,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1343612334801762</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C69">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2978,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>393</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2986,13 +2938,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1328125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3004,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3012,7 +2964,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1307692307692308</v>
+        <v>0.1328125</v>
       </c>
       <c r="C71">
         <v>17</v>
@@ -3030,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3038,25 +2990,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.117816091954023</v>
+        <v>0.1296829971181556</v>
       </c>
       <c r="C72">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D72">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3064,13 +3016,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1092896174863388</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3082,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3090,13 +3042,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1088709677419355</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3108,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>221</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3116,13 +3068,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1086142322097378</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C75">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3134,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>238</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3142,13 +3094,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1074766355140187</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C76">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3160,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3168,13 +3120,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1068493150684932</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C77">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3186,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>326</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3194,25 +3146,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.101063829787234</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C78">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>169</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3220,13 +3172,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08900523560209424</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3238,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3246,25 +3198,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08823529411764706</v>
+        <v>0.09375</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3272,25 +3224,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.078125</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3298,13 +3250,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.06904231625835189</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C82">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3316,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>418</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3324,13 +3276,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06478873239436619</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C83">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3342,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3350,25 +3302,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.06260296540362438</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C84">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E84">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>569</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3376,25 +3328,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.05734767025089606</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D85">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>263</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3402,25 +3354,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05336426914153132</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>408</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3428,7 +3380,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04746835443037975</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -3446,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>301</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3454,13 +3406,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03511450381679389</v>
+        <v>0.05047318611987382</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D88">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3472,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>632</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3480,25 +3432,77 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.02528445006321112</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E89">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F89">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>771</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.03164556962025317</v>
+      </c>
+      <c r="C90">
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <v>29</v>
+      </c>
+      <c r="E90">
+        <v>0.14</v>
+      </c>
+      <c r="F90">
+        <v>0.86</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.02748091603053435</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
